--- a/data/financial_statements/soci/ABC.xlsx
+++ b/data/financial_statements/soci/ABC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>61174000000</v>
+        <v>61174150000</v>
       </c>
       <c r="C2">
-        <v>60065000000</v>
+        <v>60064600000</v>
       </c>
       <c r="D2">
-        <v>57719000000</v>
+        <v>57719450000</v>
       </c>
       <c r="E2">
-        <v>59629000000</v>
+        <v>59628810000</v>
       </c>
       <c r="F2">
-        <v>58912000000</v>
+        <v>58912430000</v>
       </c>
       <c r="G2">
         <v>53405700000</v>
@@ -742,8 +853,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0384</v>
@@ -752,7 +863,7 @@
         <v>0.1247</v>
       </c>
       <c r="D3">
-        <v>0.1742</v>
+        <v>0.1743</v>
       </c>
       <c r="E3">
         <v>0.1354</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>59359000000</v>
+        <v>59188590000</v>
       </c>
       <c r="C4">
-        <v>58221000000</v>
+        <v>58049230000</v>
       </c>
       <c r="D4">
-        <v>55660000000</v>
+        <v>55484370000</v>
       </c>
       <c r="E4">
-        <v>57744000000</v>
+        <v>57568450000</v>
       </c>
       <c r="F4">
-        <v>57042000000</v>
+        <v>56843010000</v>
       </c>
       <c r="G4">
         <v>51517490000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1815000000</v>
+        <v>1985563000</v>
       </c>
       <c r="C5">
-        <v>1843000000</v>
+        <v>2015371000</v>
       </c>
       <c r="D5">
-        <v>2060000000</v>
+        <v>2235078000</v>
       </c>
       <c r="E5">
-        <v>1884000000</v>
+        <v>2060359000</v>
       </c>
       <c r="F5">
-        <v>1870000000</v>
+        <v>2069418000</v>
       </c>
       <c r="G5">
         <v>1888207000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1177419000</v>
@@ -1124,7 +1235,7 @@
         <v>1235079000</v>
       </c>
       <c r="F6">
-        <v>1216000000</v>
+        <v>1112810000</v>
       </c>
       <c r="G6">
         <v>1140378000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>454500000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>62000000</v>
@@ -1393,23 +1504,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>11000000</v>
+        <v>51523000</v>
       </c>
       <c r="C9">
-        <v>5000000</v>
+        <v>52862000</v>
       </c>
       <c r="D9">
-        <v>2000000</v>
+        <v>52916000</v>
       </c>
       <c r="E9">
-        <v>3000000</v>
+        <v>53372000</v>
       </c>
       <c r="F9">
-        <v>5000000</v>
+        <v>54596000</v>
       </c>
       <c r="G9">
         <v>51338000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>67000000</v>
+        <v>-72179000</v>
       </c>
       <c r="C10">
-        <v>186000000</v>
+        <v>-10974000</v>
       </c>
       <c r="D10">
-        <v>77000000</v>
+        <v>-51968000</v>
       </c>
       <c r="E10">
-        <v>75000000</v>
+        <v>-48200000</v>
       </c>
       <c r="F10">
-        <v>38000000</v>
+        <v>-7959000</v>
       </c>
       <c r="G10">
         <v>-47197000</v>
@@ -1637,23 +1748,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>382000000</v>
+        <v>382339800</v>
       </c>
       <c r="C11">
-        <v>476000000</v>
+        <v>476323000</v>
       </c>
       <c r="D11">
-        <v>728000000</v>
+        <v>728189000</v>
       </c>
       <c r="E11">
-        <v>596000000</v>
+        <v>596205000</v>
       </c>
       <c r="F11">
-        <v>554000000</v>
+        <v>553935900</v>
       </c>
       <c r="G11">
         <v>573530000</v>
@@ -1759,23 +1870,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>84000000</v>
+        <v>83664000</v>
       </c>
       <c r="C12">
-        <v>113000000</v>
+        <v>113120000</v>
       </c>
       <c r="D12">
-        <v>173000000</v>
+        <v>172944000</v>
       </c>
       <c r="E12">
-        <v>147000000</v>
+        <v>146789000</v>
       </c>
       <c r="F12">
-        <v>117000000</v>
+        <v>117488000</v>
       </c>
       <c r="G12">
         <v>278082000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>298675800</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -2041,8 +2152,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>3939000</v>
@@ -2103,23 +2214,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>295000000</v>
+        <v>294737000</v>
       </c>
       <c r="C16">
-        <v>407000000</v>
+        <v>406964000</v>
       </c>
       <c r="D16">
-        <v>548000000</v>
+        <v>548014000</v>
       </c>
       <c r="E16">
-        <v>449000000</v>
+        <v>449105000</v>
       </c>
       <c r="F16">
-        <v>438000000</v>
+        <v>437698100</v>
       </c>
       <c r="G16">
         <v>292122000</v>
@@ -2225,23 +2336,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="C17">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="D17">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="E17">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="F17">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="G17">
         <v>1.42</v>
@@ -2347,8 +2458,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.4</v>
@@ -2469,23 +2580,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>207000000</v>
+        <v>208472000</v>
       </c>
       <c r="C19">
-        <v>209000000</v>
+        <v>208885000</v>
       </c>
       <c r="D19">
-        <v>209000000</v>
+        <v>209244000</v>
       </c>
       <c r="E19">
-        <v>209000000</v>
+        <v>208555000</v>
       </c>
       <c r="F19">
-        <v>208000000</v>
+        <v>205919000</v>
       </c>
       <c r="G19">
         <v>206156000</v>
@@ -2591,23 +2702,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>210000000</v>
+        <v>211210000</v>
       </c>
       <c r="C20">
-        <v>212000000</v>
+        <v>211738000</v>
       </c>
       <c r="D20">
-        <v>212000000</v>
+        <v>211991000</v>
       </c>
       <c r="E20">
-        <v>211000000</v>
+        <v>211168000</v>
       </c>
       <c r="F20">
-        <v>211000000</v>
+        <v>208465000</v>
       </c>
       <c r="G20">
         <v>208912000</v>
@@ -2713,23 +2824,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.0297</v>
+        <v>0.0325</v>
       </c>
       <c r="C21">
-        <v>0.0307</v>
+        <v>0.0336</v>
       </c>
       <c r="D21">
-        <v>0.0357</v>
+        <v>0.0387</v>
       </c>
       <c r="E21">
-        <v>0.0316</v>
+        <v>0.0346</v>
       </c>
       <c r="F21">
-        <v>0.0317</v>
+        <v>0.0351</v>
       </c>
       <c r="G21">
         <v>0.0354</v>
@@ -2835,8 +2946,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.0074</v>
@@ -2957,11 +3068,11 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0062</v>
+        <v>0.0063</v>
       </c>
       <c r="C23">
         <v>0.007900000000000001</v>
@@ -3079,8 +3190,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0048</v>
@@ -3201,23 +3312,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>722000000</v>
+        <v>633715000</v>
       </c>
       <c r="C25">
-        <v>804000000</v>
+        <v>738762900</v>
       </c>
       <c r="D25">
-        <v>1033000000</v>
+        <v>959790300</v>
       </c>
       <c r="E25">
-        <v>892000000</v>
+        <v>824808200</v>
       </c>
       <c r="F25">
-        <v>832000000</v>
+        <v>767908100</v>
       </c>
       <c r="G25">
         <v>751850600</v>
@@ -3323,8 +3434,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>454500000</v>
@@ -3445,8 +3556,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>298675800</v>
@@ -3567,8 +3678,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AK28">
         <v>-7546000</v>
@@ -3584,23 +3695,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>299000000</v>
+        <v>298676100</v>
       </c>
       <c r="C29">
-        <v>363000000</v>
+        <v>363203000</v>
       </c>
       <c r="D29">
-        <v>555000000</v>
+        <v>555245000</v>
       </c>
       <c r="E29">
-        <v>449000000</v>
+        <v>449416000</v>
       </c>
       <c r="F29">
-        <v>436000000</v>
+        <v>436448000</v>
       </c>
       <c r="G29">
         <v>295448000</v>
@@ -3706,8 +3817,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.4468</v>
@@ -3828,8 +3939,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.4277</v>
@@ -3950,8 +4061,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AK32">
         <v>-0.03</v>
@@ -3967,8 +4078,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AK33">
         <v>-0.03</v>
@@ -3984,8 +4095,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1.4468</v>
@@ -4106,8 +4217,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.4277</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>209961000</v>
@@ -4350,23 +4461,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.0118</v>
+        <v>0.0104</v>
       </c>
       <c r="C37">
-        <v>0.0134</v>
+        <v>0.0123</v>
       </c>
       <c r="D37">
-        <v>0.0179</v>
+        <v>0.0166</v>
       </c>
       <c r="E37">
-        <v>0.015</v>
+        <v>0.0138</v>
       </c>
       <c r="F37">
-        <v>0.0141</v>
+        <v>0.013</v>
       </c>
       <c r="G37">
         <v>0.0141</v>
@@ -4472,8 +4583,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0.019</v>
